--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_payment_mode.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_payment_mode.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">z0bug.bank15_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.misc</t>
+    <t xml:space="preserve">z0bug.jou_misc</t>
   </si>
   <si>
     <t xml:space="preserve">bank_account</t>
@@ -152,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -173,12 +173,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,10 +227,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -259,11 +249,11 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
@@ -344,7 +334,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="2"/>
@@ -378,7 +368,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="2"/>
@@ -414,7 +404,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2"/>
@@ -448,7 +438,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -486,7 +476,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="2"/>
@@ -522,7 +512,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="2" t="s">

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_payment_mode.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_payment_mode.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">z0bug.pmode_antit</t>
   </si>
   <si>
-    <t xml:space="preserve">Anticipo Ft. Estero B.Cred.T</t>
+    <t xml:space="preserve">Anticipo Ft. Estero B.Cred.T. (IT74*680)</t>
   </si>
   <si>
     <t xml:space="preserve">fixed</t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">z0bug.pmode_antxe</t>
   </si>
   <si>
-    <t xml:space="preserve">Anticipo Ft. Italia B.Pop.Soft.</t>
+    <t xml:space="preserve">Anticipo Ft. Italia B.Pop.Soft. (IT15*456)</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank14_journal</t>
@@ -249,14 +249,14 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.09"/>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_payment_mode.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_payment_mode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -58,6 +58,12 @@
     <t xml:space="preserve">offsetting_account</t>
   </si>
   <si>
+    <t xml:space="preserve">move_option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post_move</t>
+  </si>
+  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
@@ -79,12 +85,15 @@
     <t xml:space="preserve">z0bug.bank15_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.jou_misc</t>
-  </si>
-  <si>
     <t xml:space="preserve">bank_account</t>
   </si>
   <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usare solo per anticipi estero</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.pmode_antxe</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank14_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usare solo per anticipi Italia</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.pmode_sct</t>
@@ -149,10 +161,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -173,6 +186,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,16 +236,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,281 +274,332 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="41.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="31.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="11.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2"/>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="N3" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2"/>
+      <c r="O3" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="2"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="M7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="2"/>
+      <c r="O7" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_payment_mode.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_payment_mode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">bank_account_link</t>
   </si>
   <si>
+    <t xml:space="preserve">_requirements</t>
+  </si>
+  <si>
     <t xml:space="preserve">payment_method_id</t>
   </si>
   <si>
@@ -134,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.coa_152220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer_account</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.pmode_ribaf</t>
@@ -274,10 +274,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -285,19 +285,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="41.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="31.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="31.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="1" width="11.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,162 +347,174 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>27</v>
+      <c r="P3" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>38</v>
@@ -509,11 +522,13 @@
       <c r="M5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -523,39 +538,42 @@
         <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -565,29 +583,29 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>38</v>
@@ -595,11 +613,13 @@
       <c r="M7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_payment_mode.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_payment_mode.xlsx
@@ -277,7 +277,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
